--- a/Dragonfall/gameData/shared/ProductionTechLevelUp.xlsx
+++ b/Dragonfall/gameData/shared/ProductionTechLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24380" yWindow="0" windowWidth="24840" windowHeight="13000" tabRatio="928" firstSheet="4" activeTab="17"/>
+    <workbookView xWindow="500" yWindow="0" windowWidth="30260" windowHeight="20880" tabRatio="928" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
@@ -307,7 +307,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="684">
+  <cellStyleXfs count="722">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -322,6 +322,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1015,7 +1053,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="684">
+  <cellStyles count="722">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1360,6 +1398,25 @@
     <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1697,6 +1754,25 @@
     <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2149,7 +2225,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3759,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H66"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4172,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>18700</v>
@@ -4198,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>21076</v>
@@ -4224,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>23526</v>
@@ -4250,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>26048</v>
@@ -4276,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>28642</v>
@@ -4302,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>31310</v>
@@ -4328,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>34050</v>
@@ -4354,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>36864</v>
@@ -4380,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>39750</v>
@@ -4406,10 +4482,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>42708</v>
@@ -4432,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>45740</v>
@@ -4458,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>48844</v>
@@ -4484,10 +4560,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>52022</v>
@@ -4510,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>55272</v>
@@ -4536,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>58594</v>
@@ -4562,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>61990</v>
@@ -4588,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>65458</v>
@@ -4614,10 +4690,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>69000</v>
@@ -4640,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>72614</v>
@@ -4666,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>76300</v>
@@ -4692,10 +4768,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>80060</v>
@@ -4718,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>83892</v>
@@ -4744,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>87798</v>
@@ -4770,10 +4846,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>91776</v>
@@ -4796,10 +4872,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>95826</v>
@@ -4822,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>99950</v>
@@ -4848,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>104146</v>
@@ -4874,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>108416</v>
@@ -4900,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>112758</v>
@@ -4926,10 +5002,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>117172</v>
@@ -4952,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>121660</v>
@@ -4978,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>126220</v>
@@ -5004,10 +5080,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>130854</v>
@@ -5030,10 +5106,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>135560</v>
@@ -5056,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>140338</v>
@@ -5082,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>145190</v>
@@ -5108,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>150114</v>
@@ -5134,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>155112</v>
@@ -5160,10 +5236,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>160182</v>
@@ -5186,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>165324</v>
@@ -5212,10 +5288,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>170540</v>
@@ -5238,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>175828</v>
@@ -5264,10 +5340,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="F58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>181190</v>
@@ -5290,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>186624</v>
@@ -5316,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>192130</v>
@@ -5342,10 +5418,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>197710</v>
@@ -5370,7 +5446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A56" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H63"/>
     </sheetView>
   </sheetViews>
@@ -6981,7 +7057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A51" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H66"/>
     </sheetView>
   </sheetViews>
@@ -8592,7 +8668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A78" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H67"/>
     </sheetView>
   </sheetViews>
@@ -10203,7 +10279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A51" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H64"/>
     </sheetView>
   </sheetViews>
@@ -13425,8 +13501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H62"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13838,10 +13914,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>32430</v>
@@ -13864,10 +13940,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>36269</v>
@@ -13890,10 +13966,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>40225</v>
@@ -13916,10 +13992,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>44299</v>
@@ -13942,10 +14018,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>48491</v>
@@ -13968,10 +14044,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>52800</v>
@@ -13994,10 +14070,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>57227</v>
@@ -14020,10 +14096,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>61771</v>
@@ -14046,10 +14122,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>66433</v>
@@ -14072,10 +14148,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>71213</v>
@@ -14098,10 +14174,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>76110</v>
@@ -14124,10 +14200,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>81125</v>
@@ -14150,10 +14226,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>86257</v>
@@ -14176,10 +14252,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>91507</v>
@@ -14202,10 +14278,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>96875</v>
@@ -14228,10 +14304,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>102360</v>
@@ -14254,10 +14330,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>107963</v>
@@ -14280,10 +14356,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>113683</v>
@@ -14306,10 +14382,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>119521</v>
@@ -14332,10 +14408,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>125477</v>
@@ -14358,10 +14434,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>131550</v>
@@ -14384,10 +14460,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>137741</v>
@@ -14410,10 +14486,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>144049</v>
@@ -14436,10 +14512,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>150475</v>
@@ -14462,10 +14538,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>157019</v>
@@ -14488,10 +14564,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>163680</v>
@@ -14514,10 +14590,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>170459</v>
@@ -14540,10 +14616,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>177355</v>
@@ -14566,10 +14642,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>184369</v>
@@ -14592,10 +14668,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>191501</v>
@@ -14618,10 +14694,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>198750</v>
@@ -14644,10 +14720,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>206117</v>
@@ -14670,10 +14746,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>213601</v>
@@ -14696,10 +14772,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>221203</v>
@@ -14722,10 +14798,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>228923</v>
@@ -14748,10 +14824,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>236760</v>
@@ -14774,10 +14850,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>244715</v>
@@ -14800,10 +14876,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>252787</v>
@@ -14826,10 +14902,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>260977</v>
@@ -14852,10 +14928,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>269285</v>
@@ -14878,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>277710</v>
@@ -14904,10 +14980,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>286253</v>
@@ -14930,10 +15006,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="F58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>294913</v>
@@ -14956,10 +15032,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>303691</v>
@@ -14982,10 +15058,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>312587</v>
@@ -15008,10 +15084,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>321600</v>
@@ -16647,7 +16723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -18258,8 +18334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -18665,7 +18741,7 @@
         <v>21790</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -18674,7 +18750,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>32060</v>
@@ -18691,7 +18767,7 @@
         <v>25540</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -18700,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>36082</v>
@@ -18717,7 +18793,7 @@
         <v>28070</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -18726,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>40226</v>
@@ -18743,7 +18819,7 @@
         <v>30820</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -18752,7 +18828,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>44494</v>
@@ -18769,7 +18845,7 @@
         <v>33890</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -18778,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>48886</v>
@@ -18795,7 +18871,7 @@
         <v>37190</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -18804,7 +18880,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>53400</v>
@@ -18821,7 +18897,7 @@
         <v>40820</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -18830,7 +18906,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>58038</v>
@@ -18847,7 +18923,7 @@
         <v>44890</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -18856,7 +18932,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>62798</v>
@@ -18873,7 +18949,7 @@
         <v>49410</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -18882,7 +18958,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>67682</v>
@@ -18899,7 +18975,7 @@
         <v>61070</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -18908,7 +18984,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>72690</v>
@@ -18925,7 +19001,7 @@
         <v>67550</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -18934,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>77820</v>
@@ -18951,7 +19027,7 @@
         <v>74920</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -18960,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>83074</v>
@@ -18977,7 +19053,7 @@
         <v>83170</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -18986,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>88450</v>
@@ -19003,7 +19079,7 @@
         <v>92420</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -19012,7 +19088,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>93950</v>
@@ -19029,7 +19105,7 @@
         <v>102650</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -19038,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>99574</v>
@@ -19055,7 +19131,7 @@
         <v>114200</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -19064,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>105320</v>
@@ -19081,7 +19157,7 @@
         <v>127070</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -19090,7 +19166,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>111190</v>
@@ -19107,7 +19183,7 @@
         <v>162370</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -19116,7 +19192,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>117182</v>
@@ -19133,7 +19209,7 @@
         <v>181630</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -19142,7 +19218,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>123298</v>
@@ -19159,7 +19235,7 @@
         <v>203080</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -19168,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>129538</v>
@@ -19185,7 +19261,7 @@
         <v>227170</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -19194,7 +19270,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>135900</v>
@@ -19211,7 +19287,7 @@
         <v>254340</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -19220,7 +19296,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>142386</v>
@@ -19237,7 +19313,7 @@
         <v>284580</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -19246,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>148994</v>
@@ -19263,7 +19339,7 @@
         <v>318790</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -19272,7 +19348,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>155726</v>
@@ -19289,7 +19365,7 @@
         <v>357070</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -19298,7 +19374,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>162582</v>
@@ -19315,7 +19391,7 @@
         <v>459270</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -19324,7 +19400,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>169560</v>
@@ -19341,7 +19417,7 @@
         <v>515150</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -19350,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>176662</v>
@@ -19367,7 +19443,7 @@
         <v>577840</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -19376,7 +19452,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>183886</v>
@@ -19393,7 +19469,7 @@
         <v>648130</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -19402,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>191234</v>
@@ -19419,7 +19495,7 @@
         <v>726900</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -19428,7 +19504,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>198706</v>
@@ -19445,7 +19521,7 @@
         <v>815010</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -19454,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>206300</v>
@@ -19471,7 +19547,7 @@
         <v>913680</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -19480,7 +19556,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>214018</v>
@@ -19497,7 +19573,7 @@
         <v>1023900</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -19506,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>221858</v>
@@ -19523,7 +19599,7 @@
         <v>1303510</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -19532,7 +19608,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>229822</v>
@@ -19549,7 +19625,7 @@
         <v>1461260</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -19558,7 +19634,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>237910</v>
@@ -19575,7 +19651,7 @@
         <v>1637260</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -19584,7 +19660,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>246120</v>
@@ -19601,7 +19677,7 @@
         <v>1833720</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -19610,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>254454</v>
@@ -19627,7 +19703,7 @@
         <v>2053610</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -19636,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>262910</v>
@@ -19653,7 +19729,7 @@
         <v>2298900</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -19662,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>271490</v>
@@ -19679,7 +19755,7 @@
         <v>2572800</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -19688,7 +19764,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>280194</v>
@@ -19705,7 +19781,7 @@
         <v>2878600</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -19714,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>289020</v>
@@ -19731,7 +19807,7 @@
         <v>3219610</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -19740,7 +19816,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>297970</v>
@@ -19757,7 +19833,7 @@
         <v>3599110</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -19766,7 +19842,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>307042</v>
@@ -19783,7 +19859,7 @@
         <v>4023710</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -19792,7 +19868,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>316238</v>
@@ -19809,7 +19885,7 @@
         <v>4495600</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -19818,7 +19894,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>325558</v>
@@ -19835,7 +19911,7 @@
         <v>5021400</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -19844,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>335000</v>
@@ -19870,7 +19946,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -20276,16 +20352,16 @@
         <v>26570</v>
       </c>
       <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>38380</v>
@@ -20302,16 +20378,16 @@
         <v>30990</v>
       </c>
       <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>43133</v>
@@ -20328,16 +20404,16 @@
         <v>33980</v>
       </c>
       <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>48031</v>
@@ -20354,16 +20430,16 @@
         <v>37230</v>
       </c>
       <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>53075</v>
@@ -20380,16 +20456,16 @@
         <v>40870</v>
       </c>
       <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>15</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>58265</v>
@@ -20406,16 +20482,16 @@
         <v>44770</v>
       </c>
       <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>20</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>63600</v>
@@ -20432,16 +20508,16 @@
         <v>49060</v>
       </c>
       <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>25</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>69081</v>
@@ -20458,16 +20534,16 @@
         <v>53870</v>
       </c>
       <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>30</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>74707</v>
@@ -20484,16 +20560,16 @@
         <v>59200</v>
       </c>
       <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>35</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>80479</v>
@@ -20510,16 +20586,16 @@
         <v>72980</v>
       </c>
       <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
         <v>40</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>86397</v>
@@ -20536,16 +20612,16 @@
         <v>80650</v>
       </c>
       <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
         <v>45</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>92460</v>
@@ -20562,16 +20638,16 @@
         <v>89360</v>
       </c>
       <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
         <v>50</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>98669</v>
@@ -20588,16 +20664,16 @@
         <v>99110</v>
       </c>
       <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
         <v>55</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>105023</v>
@@ -20614,16 +20690,16 @@
         <v>110030</v>
       </c>
       <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>60</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>111523</v>
@@ -20640,16 +20716,16 @@
         <v>122120</v>
       </c>
       <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>65</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>118169</v>
@@ -20666,16 +20742,16 @@
         <v>135770</v>
       </c>
       <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
         <v>70</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>124960</v>
@@ -20692,16 +20768,16 @@
         <v>150980</v>
       </c>
       <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
         <v>75</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>131897</v>
@@ -20718,16 +20794,16 @@
         <v>192710</v>
       </c>
       <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
         <v>80</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>138979</v>
@@ -20744,16 +20820,16 @@
         <v>215460</v>
       </c>
       <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
         <v>85</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>146207</v>
@@ -20770,16 +20846,16 @@
         <v>240810</v>
       </c>
       <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
         <v>90</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>153581</v>
@@ -20796,16 +20872,16 @@
         <v>269280</v>
       </c>
       <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
         <v>95</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>161100</v>
@@ -20822,16 +20898,16 @@
         <v>301390</v>
       </c>
       <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
         <v>100</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>168765</v>
@@ -20848,16 +20924,16 @@
         <v>337140</v>
       </c>
       <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>105</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>176575</v>
@@ -20874,16 +20950,16 @@
         <v>377570</v>
       </c>
       <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
         <v>110</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>184531</v>
@@ -20900,16 +20976,16 @@
         <v>422810</v>
       </c>
       <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
         <v>115</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>192633</v>
@@ -20926,16 +21002,16 @@
         <v>543580</v>
       </c>
       <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
         <v>120</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>200880</v>
@@ -20952,16 +21028,16 @@
         <v>609620</v>
       </c>
       <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
         <v>125</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>209273</v>
@@ -20978,16 +21054,16 @@
         <v>683720</v>
       </c>
       <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
         <v>130</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>217811</v>
@@ -21004,16 +21080,16 @@
         <v>766790</v>
       </c>
       <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
         <v>135</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>226495</v>
@@ -21030,16 +21106,16 @@
         <v>859870</v>
       </c>
       <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
         <v>140</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>235325</v>
@@ -21056,16 +21132,16 @@
         <v>964000</v>
       </c>
       <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
         <v>145</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>244300</v>
@@ -21082,16 +21158,16 @@
         <v>1080610</v>
       </c>
       <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
         <v>150</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>253421</v>
@@ -21108,16 +21184,16 @@
         <v>1210870</v>
       </c>
       <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
         <v>155</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>262687</v>
@@ -21134,16 +21210,16 @@
         <v>1541330</v>
       </c>
       <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
         <v>160</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>272099</v>
@@ -21160,16 +21236,16 @@
         <v>1727750</v>
       </c>
       <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
         <v>165</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>281657</v>
@@ -21186,16 +21262,16 @@
         <v>1935750</v>
       </c>
       <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
         <v>170</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>291360</v>
@@ -21212,16 +21288,16 @@
         <v>2167930</v>
       </c>
       <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
         <v>175</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>301209</v>
@@ -21238,16 +21314,16 @@
         <v>2427800</v>
       </c>
       <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
         <v>180</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>311203</v>
@@ -21264,16 +21340,16 @@
         <v>2717700</v>
       </c>
       <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
         <v>185</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>321343</v>
@@ -21290,16 +21366,16 @@
         <v>3041400</v>
       </c>
       <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
         <v>190</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>331629</v>
@@ -21316,16 +21392,16 @@
         <v>3402800</v>
       </c>
       <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
         <v>195</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>342060</v>
@@ -21342,16 +21418,16 @@
         <v>3805800</v>
       </c>
       <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
         <v>200</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>352637</v>
@@ -21368,16 +21444,16 @@
         <v>4254300</v>
       </c>
       <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
         <v>205</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>363359</v>
@@ -21394,16 +21470,16 @@
         <v>4756100</v>
       </c>
       <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
         <v>210</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>374227</v>
@@ -21420,16 +21496,16 @@
         <v>5313800</v>
       </c>
       <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
         <v>220</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>385241</v>
@@ -21446,16 +21522,16 @@
         <v>5935200</v>
       </c>
       <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
         <v>240</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>396400</v>
@@ -21481,7 +21557,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E2" sqref="E2:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -21893,10 +21969,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>32660</v>
@@ -21919,10 +21995,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>36682</v>
@@ -21945,10 +22021,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <v>5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>40826</v>
@@ -21971,10 +22047,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>45094</v>
@@ -21997,10 +22073,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>15</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>49486</v>
@@ -22023,10 +22099,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>20</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>54000</v>
@@ -22049,10 +22125,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>25</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>58638</v>
@@ -22075,10 +22151,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>30</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>63398</v>
@@ -22101,10 +22177,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>35</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>68282</v>
@@ -22127,10 +22203,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
         <v>40</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>73290</v>
@@ -22153,10 +22229,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
         <v>45</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>78420</v>
@@ -22179,10 +22255,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
         <v>50</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>83674</v>
@@ -22205,10 +22281,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
         <v>55</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>89050</v>
@@ -22231,10 +22307,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>60</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>94550</v>
@@ -22257,10 +22333,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>65</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>100174</v>
@@ -22283,10 +22359,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
         <v>70</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>105920</v>
@@ -22309,10 +22385,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
         <v>75</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>111790</v>
@@ -22335,10 +22411,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
         <v>80</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>117782</v>
@@ -22361,10 +22437,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
         <v>85</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>123898</v>
@@ -22387,10 +22463,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
         <v>90</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>130138</v>
@@ -22413,10 +22489,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
         <v>95</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>136500</v>
@@ -22439,10 +22515,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
         <v>100</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>142986</v>
@@ -22465,10 +22541,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>105</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>149594</v>
@@ -22491,10 +22567,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
         <v>110</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>156326</v>
@@ -22517,10 +22593,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
         <v>115</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>163182</v>
@@ -22543,10 +22619,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
         <v>120</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>170160</v>
@@ -22569,10 +22645,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
         <v>125</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>177262</v>
@@ -22595,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
         <v>130</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>184486</v>
@@ -22621,10 +22697,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
         <v>135</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>191834</v>
@@ -22647,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
         <v>140</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>199306</v>
@@ -22673,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
         <v>145</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>206900</v>
@@ -22699,10 +22775,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
         <v>150</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>214618</v>
@@ -22725,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
         <v>155</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>222458</v>
@@ -22751,10 +22827,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
         <v>160</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>230422</v>
@@ -22777,10 +22853,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
         <v>165</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>238510</v>
@@ -22803,10 +22879,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
         <v>170</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>246720</v>
@@ -22829,10 +22905,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
         <v>175</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>255054</v>
@@ -22855,10 +22931,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
         <v>180</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>263510</v>
@@ -22881,10 +22957,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
         <v>185</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>272090</v>
@@ -22907,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
         <v>190</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>280794</v>
@@ -22933,10 +23009,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
         <v>195</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>289620</v>
@@ -22959,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
         <v>200</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>298570</v>
@@ -22985,10 +23061,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
         <v>205</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>307642</v>
@@ -23011,10 +23087,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
         <v>210</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>316838</v>
@@ -23037,10 +23113,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
         <v>220</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>326158</v>
@@ -23063,10 +23139,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
         <v>240</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>335600</v>
@@ -23092,7 +23168,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F61"/>
+      <selection activeCell="E15" sqref="E15:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -26314,7 +26390,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H62"/>
+      <selection activeCell="C2" sqref="C2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -27925,7 +28001,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H62"/>
+      <selection activeCell="E2" sqref="E2:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -28331,10 +28407,10 @@
         <v>25240</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -28357,10 +28433,10 @@
         <v>29150</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -28383,10 +28459,10 @@
         <v>31790</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -28409,10 +28485,10 @@
         <v>34670</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -28435,10 +28511,10 @@
         <v>37890</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -28461,10 +28537,10 @@
         <v>41340</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -28487,10 +28563,10 @@
         <v>45130</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -28513,10 +28589,10 @@
         <v>49390</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -28539,10 +28615,10 @@
         <v>54100</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -28565,10 +28641,10 @@
         <v>66290</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -28591,10 +28667,10 @@
         <v>73080</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -28617,10 +28693,10 @@
         <v>80780</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -28643,10 +28719,10 @@
         <v>89410</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -28669,10 +28745,10 @@
         <v>99070</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -28695,10 +28771,10 @@
         <v>109760</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -28721,10 +28797,10 @@
         <v>121840</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -28747,10 +28823,10 @@
         <v>135290</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -28773,10 +28849,10 @@
         <v>172210</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -28799,10 +28875,10 @@
         <v>192330</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -28825,10 +28901,10 @@
         <v>214760</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -28851,10 +28927,10 @@
         <v>239940</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -28877,10 +28953,10 @@
         <v>268350</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -28903,10 +28979,10 @@
         <v>299970</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -28929,10 +29005,10 @@
         <v>335740</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -28955,10 +29031,10 @@
         <v>375760</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -28981,10 +29057,10 @@
         <v>482590</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -29007,10 +29083,10 @@
         <v>541010</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -29033,10 +29109,10 @@
         <v>606560</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -29059,10 +29135,10 @@
         <v>680050</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -29085,10 +29161,10 @@
         <v>762390</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -29111,10 +29187,10 @@
         <v>854500</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -29137,10 +29213,10 @@
         <v>957660</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -29163,10 +29239,10 @@
         <v>1072890</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -29189,10 +29265,10 @@
         <v>1365220</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -29215,10 +29291,10 @@
         <v>1530130</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -29241,10 +29317,10 @@
         <v>1714130</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -29267,10 +29343,10 @@
         <v>1919520</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -29293,10 +29369,10 @@
         <v>2149400</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -29319,10 +29395,10 @@
         <v>2405850</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -29345,10 +29421,10 @@
         <v>2692200</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -29371,10 +29447,10 @@
         <v>3011900</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -29397,10 +29473,10 @@
         <v>3368400</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -29423,10 +29499,10 @@
         <v>3765150</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -29449,10 +29525,10 @@
         <v>4209050</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -29475,10 +29551,10 @@
         <v>4702400</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -29501,10 +29577,10 @@
         <v>5252100</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -29535,7 +29611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A54" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H72"/>
     </sheetView>
   </sheetViews>
